--- a/cropped_and_labeled_image_data/2022_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2022_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -584,11 +573,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>scatter plot</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+          <t>scatter plot(s)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -624,9 +610,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1065,11 +1015,8 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1105,9 +1052,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1176,11 +1117,8 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1213,11 +1151,8 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1253,9 +1188,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1287,11 +1219,8 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1327,9 +1256,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1364,9 +1290,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,9 +1324,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1435,11 +1355,8 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1472,11 +1389,8 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1509,11 +1423,8 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1546,11 +1457,8 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>mixed statistical plot (more than 1 statistical plot type)</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+          <t>mixed statistical plot (more than 1 statistical plot and type)</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1586,9 +1494,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1657,11 +1559,8 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1697,9 +1596,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1734,9 +1630,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1771,9 +1664,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,9 +1698,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1845,9 +1732,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1882,9 +1766,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1916,11 +1797,8 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1956,9 +1834,6 @@
           <t>organizational chart</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1993,9 +1868,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2030,9 +1902,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2064,11 +1933,8 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2104,9 +1970,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2138,11 +2001,8 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2175,11 +2035,8 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2212,11 +2069,8 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2252,9 +2106,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2289,9 +2140,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2326,9 +2174,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2363,9 +2208,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,9 +2242,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2434,11 +2273,8 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2471,11 +2307,8 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2511,9 +2344,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2545,11 +2375,8 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2585,9 +2412,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2622,9 +2446,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2656,11 +2477,8 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2696,9 +2514,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2733,9 +2548,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2770,9 +2582,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2807,9 +2616,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2844,9 +2650,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2881,9 +2684,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2918,9 +2718,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2955,9 +2752,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2992,9 +2786,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3029,9 +2820,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3063,11 +2851,8 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3103,9 +2888,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3140,9 +2922,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3177,9 +2956,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3214,9 +2990,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3251,9 +3024,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3288,9 +3058,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3325,9 +3092,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3362,9 +3126,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3399,9 +3160,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3436,9 +3194,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3473,9 +3228,6 @@
           <t>hierarchical diagram</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3510,9 +3262,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3547,9 +3296,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3584,9 +3330,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3621,9 +3364,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3657,9 +3397,6 @@
         <is>
           <t>conceptual diagram</t>
         </is>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
